--- a/WSC/Test Report/SLCM/WSC SLCM_Clearance.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Clearance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330"/>
+    <workbookView windowWidth="22188" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="TC1_Clearance Master" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,6 +588,14 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1125,64 +1133,64 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1191,10 +1199,10 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1203,10 +1211,10 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1215,10 +1223,10 @@
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,10 +1235,10 @@
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1239,10 +1247,10 @@
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1251,12 +1259,12 @@
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,9 +1310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1346,6 +1351,24 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1883,18 +1906,18 @@
   <sheetPr/>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7142857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.712962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.712962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5740740740741" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.4259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.712962962963" style="29" customWidth="1"/>
+    <col min="6" max="6" width="10.287037037037" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1911,7 +1934,7 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
+      <c r="E1" s="30"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:6">
@@ -1928,11 +1951,12 @@
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
+    <row r="3" s="1" customFormat="1" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="9" t="s">
@@ -1944,10 +1968,10 @@
       <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="45" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="43.2" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -1955,22 +1979,22 @@
       <c r="C6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="10"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="3:6">
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:6">
@@ -1982,40 +2006,42 @@
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:2">
+    <row r="11" s="2" customFormat="1" spans="1:5">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="6:6">
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="5:6">
+      <c r="E12" s="29"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="33" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="5" t="s">
@@ -2025,213 +2051,213 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="19">
+    <row r="14" s="2" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A14" s="18">
         <v>1</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20">
         <v>292</v>
       </c>
     </row>
-    <row r="15" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A15" s="19">
+    <row r="15" s="2" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A15" s="18">
         <v>2</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20">
         <v>292</v>
       </c>
     </row>
-    <row r="16" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="19">
+    <row r="16" s="2" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A16" s="18">
         <v>3</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20">
         <v>292</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A17" s="19">
+    <row r="17" s="2" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A17" s="18">
         <v>4</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20">
         <v>292</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="19">
+    <row r="18" s="2" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A18" s="18">
         <v>5</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20">
         <v>292</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A19" s="19">
+    <row r="19" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A19" s="18">
         <v>6</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="21">
+      <c r="F19" s="22"/>
+      <c r="G19" s="20">
         <v>292</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A20" s="19">
+    <row r="20" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A20" s="18">
         <v>7</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="21">
+      <c r="F20" s="22"/>
+      <c r="G20" s="20">
         <v>292</v>
       </c>
     </row>
-    <row r="21" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="19">
+    <row r="21" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A21" s="18">
         <v>8</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="21">
+      <c r="F21" s="22"/>
+      <c r="G21" s="20">
         <v>292</v>
       </c>
     </row>
-    <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A22" s="19">
+    <row r="22" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A22" s="18">
         <v>9</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="21">
+      <c r="F22" s="22"/>
+      <c r="G22" s="20">
         <v>292</v>
       </c>
     </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A23" s="19">
+    <row r="23" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A23" s="18">
         <v>10</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="21">
+      <c r="F23" s="22"/>
+      <c r="G23" s="20">
         <v>292</v>
       </c>
     </row>
@@ -2240,39 +2266,39 @@
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" s="2" customFormat="1" spans="1:6">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25" t="s">
+      <c r="A25" s="23"/>
+      <c r="B25" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26" t="s">
+      <c r="C25" s="24"/>
+      <c r="D25" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="F25" s="27" t="s">
+      <c r="F25" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" s="2" customFormat="1" ht="30" spans="1:6">
-      <c r="A26" s="24"/>
-      <c r="B26" s="28" t="s">
+    <row r="26" s="2" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A26" s="23"/>
+      <c r="B26" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="21">
+      <c r="F26" s="20">
         <v>292</v>
       </c>
     </row>
@@ -2296,14 +2322,14 @@
       <selection activeCell="C5" sqref="C5:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="76.7142857142857" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.4285714285714" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7142857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.712962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="76.712962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5740740740741" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.4259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.712962962963" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.287037037037" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2358,7 +2384,7 @@
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" s="1" customFormat="1" ht="45" spans="1:6">
+    <row r="6" s="1" customFormat="1" ht="43.2" spans="1:6">
       <c r="A6" s="11"/>
       <c r="B6" s="4" t="s">
         <v>53</v>
@@ -2372,14 +2398,14 @@
     <row r="7" s="1" customFormat="1" spans="1:6">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" s="1" customFormat="1" spans="3:6">
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="10"/>
@@ -2399,8 +2425,8 @@
       <c r="F9" s="10"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:6">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C10" s="10"/>
@@ -2416,16 +2442,16 @@
       <c r="F12" s="10"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="17" t="s">
         <v>19</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -2438,254 +2464,254 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="19">
+    <row r="14" s="2" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A14" s="18">
         <v>1</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="19" t="s">
         <v>59</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A15" s="19">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A15" s="18">
         <v>2</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="60" spans="1:7">
-      <c r="A16" s="19">
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="57.6" spans="1:7">
+      <c r="A16" s="18">
         <v>3</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-    </row>
-    <row r="17" s="2" customFormat="1" ht="45" spans="1:7">
-      <c r="A17" s="19">
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A17" s="18">
         <v>4</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="19">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="1:7">
+      <c r="A18" s="18">
         <v>5</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>68</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A19" s="19">
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A19" s="18">
         <v>6</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A20" s="19">
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A20" s="18">
         <v>7</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="60" spans="1:7">
-      <c r="A21" s="19">
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="57.6" spans="1:7">
+      <c r="A21" s="18">
         <v>8</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="45" spans="1:7">
-      <c r="A22" s="19">
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="43.2" spans="1:7">
+      <c r="A22" s="18">
         <v>9</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A23" s="19">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A23" s="18">
         <v>10</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E23" s="23" t="s">
+      <c r="E23" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A24" s="19">
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A24" s="18">
         <v>11</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="23" t="s">
+      <c r="E24" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21">
+      <c r="F24" s="20"/>
+      <c r="G24" s="20">
         <v>295</v>
       </c>
     </row>
-    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A25" s="19">
+    <row r="25" s="1" customFormat="1" spans="1:7">
+      <c r="A25" s="18">
         <v>12</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="30" spans="1:7">
-      <c r="A26" s="19">
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="28.8" spans="1:7">
+      <c r="A26" s="18">
         <v>13</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D26" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="E26" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="21"/>
-      <c r="G26" s="21">
+      <c r="F26" s="20"/>
+      <c r="G26" s="20">
         <v>293</v>
       </c>
     </row>
@@ -2694,107 +2720,107 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="23"/>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:6">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25" t="s">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26" t="s">
+      <c r="C28" s="24"/>
+      <c r="D28" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="27" t="s">
+      <c r="E28" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="27" t="s">
+      <c r="F28" s="26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" s="2" customFormat="1" ht="30" spans="1:6">
-      <c r="A29" s="24"/>
-      <c r="B29" s="28" t="s">
+    <row r="29" s="2" customFormat="1" ht="28.8" spans="1:6">
+      <c r="A29" s="23"/>
+      <c r="B29" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="29" t="s">
+      <c r="D29" s="28" t="s">
         <v>92</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="20">
         <v>293</v>
       </c>
     </row>
-    <row r="30" ht="30" spans="2:6">
-      <c r="B30" s="28" t="s">
+    <row r="30" ht="28.8" spans="2:6">
+      <c r="B30" s="27" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="29" t="s">
+      <c r="D30" s="28" t="s">
         <v>95</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="21">
+      <c r="F30" s="20">
         <v>293</v>
       </c>
     </row>
-    <row r="31" ht="30" spans="2:6">
-      <c r="B31" s="28" t="s">
+    <row r="31" ht="28.8" spans="2:6">
+      <c r="B31" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="29" t="s">
+      <c r="C31" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="29" t="s">
+      <c r="D31" s="28" t="s">
         <v>97</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F31" s="21">
+      <c r="F31" s="20">
         <v>293</v>
       </c>
     </row>
-    <row r="32" ht="30" spans="2:6">
-      <c r="B32" s="28" t="s">
+    <row r="32" ht="28.8" spans="2:6">
+      <c r="B32" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="29" t="s">
+      <c r="C32" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="29" t="s">
+      <c r="D32" s="28" t="s">
         <v>99</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="20">
         <v>293</v>
       </c>
     </row>
-    <row r="33" ht="30" spans="2:6">
-      <c r="B33" s="28" t="s">
+    <row r="33" ht="28.8" spans="2:6">
+      <c r="B33" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="29" t="s">
+      <c r="D33" s="28" t="s">
         <v>101</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F33" s="21">
+      <c r="F33" s="20">
         <v>293</v>
       </c>
     </row>
